--- a/Documentatie/Burn-down Excel - sprint 1.xlsx
+++ b/Documentatie/Burn-down Excel - sprint 1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\....HRO\Jaar 1\project 2\Project2-09-00-Present\Documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shreyas\Documents\GitHub\Project2-09-00-Present\Documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Projectnaam</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Day 1</t>
   </si>
   <si>
-    <t>User story 1</t>
-  </si>
-  <si>
     <t>User story 2</t>
   </si>
   <si>
@@ -92,24 +89,6 @@
     <t>Sprint 1</t>
   </si>
   <si>
-    <t>Work item 1.1</t>
-  </si>
-  <si>
-    <t>Work item 1.2</t>
-  </si>
-  <si>
-    <t>Work item 1.4</t>
-  </si>
-  <si>
-    <t>Work item 1.3</t>
-  </si>
-  <si>
-    <t>Work item 2.1</t>
-  </si>
-  <si>
-    <t>Work item 2.2</t>
-  </si>
-  <si>
     <t>Work item 2.3</t>
   </si>
   <si>
@@ -138,6 +117,33 @@
   </si>
   <si>
     <t>Day 16 - remaining hours</t>
+  </si>
+  <si>
+    <t>As an user I want to see a menu when I start the game, so I can start a new game or exit the game</t>
+  </si>
+  <si>
+    <t>create start button</t>
+  </si>
+  <si>
+    <t>create exit button</t>
+  </si>
+  <si>
+    <t>As an user I want a menu with buttons, so I can start and exit the game</t>
+  </si>
+  <si>
+    <t>create 2 buttons</t>
+  </si>
+  <si>
+    <t>place buttons</t>
+  </si>
+  <si>
+    <t>Create a github folder</t>
+  </si>
+  <si>
+    <t>create a folder structure</t>
+  </si>
+  <si>
+    <t>give everybody rights to push&amp;pull</t>
   </si>
 </sst>
 </file>
@@ -183,12 +189,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -219,13 +243,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -303,52 +330,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -384,52 +411,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>12</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -868,22 +895,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" customWidth="1"/>
-    <col min="2" max="2" width="15.3984375" customWidth="1"/>
-    <col min="3" max="3" width="14.09765625" customWidth="1"/>
-    <col min="4" max="4" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="6.8984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="19" width="5.8984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="51.59765625" customWidth="1"/>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="99.625" customWidth="1"/>
+    <col min="3" max="3" width="34.75" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="10" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="19" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="51.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -894,7 +921,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
@@ -942,296 +969,296 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>5</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>5</v>
+      </c>
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
         <v>2</v>
       </c>
-      <c r="R2" s="2">
-        <v>2</v>
-      </c>
-      <c r="S2" s="2">
-        <v>2</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>35</v>
+      <c r="S5" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2">
-        <v>3</v>
-      </c>
-      <c r="I3" s="2">
-        <v>3</v>
-      </c>
-      <c r="J3" s="2">
-        <v>3</v>
-      </c>
-      <c r="K3" s="2">
-        <v>3</v>
-      </c>
-      <c r="L3" s="2">
-        <v>2</v>
-      </c>
-      <c r="M3" s="2">
-        <v>2</v>
-      </c>
-      <c r="N3" s="2">
-        <v>2</v>
-      </c>
-      <c r="O3" s="2">
-        <v>2</v>
-      </c>
-      <c r="P3" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>1</v>
-      </c>
-      <c r="R3" s="2">
-        <v>1</v>
-      </c>
-      <c r="S3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2">
-        <v>4</v>
-      </c>
-      <c r="G4" s="2">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2">
-        <v>4</v>
-      </c>
-      <c r="I4" s="2">
-        <v>4</v>
-      </c>
-      <c r="J4" s="2">
-        <v>4</v>
-      </c>
-      <c r="K4" s="2">
-        <v>4</v>
-      </c>
-      <c r="L4" s="2">
-        <v>3</v>
-      </c>
-      <c r="M4" s="2">
-        <v>3</v>
-      </c>
-      <c r="N4" s="2">
-        <v>3</v>
-      </c>
-      <c r="O4" s="2">
-        <v>3</v>
-      </c>
-      <c r="P4" s="2">
-        <v>3</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>1</v>
-      </c>
-      <c r="R4" s="2">
-        <v>1</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
-        <v>1</v>
-      </c>
-      <c r="P5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2">
-        <v>1</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R6" s="2">
         <v>1</v>
@@ -1240,555 +1267,539 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>2</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2">
+        <v>16</v>
+      </c>
+      <c r="H14" s="2">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2">
+        <v>16</v>
+      </c>
+      <c r="J14" s="2">
+        <v>15</v>
+      </c>
+      <c r="K14" s="2">
+        <v>29</v>
+      </c>
+      <c r="L14" s="2">
+        <v>43</v>
+      </c>
+      <c r="M14" s="2">
+        <v>58</v>
+      </c>
+      <c r="N14" s="2">
+        <v>73</v>
+      </c>
+      <c r="O14" s="2">
+        <v>3</v>
+      </c>
+      <c r="P14" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>9</v>
+      </c>
+      <c r="R14" s="2">
+        <v>12</v>
+      </c>
+      <c r="S14" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>27</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1</v>
-      </c>
-      <c r="N7" s="2">
-        <v>1</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1</v>
-      </c>
-      <c r="P7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2">
-        <v>1</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2</v>
-      </c>
-      <c r="J8" s="2">
-        <v>2</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2</v>
-      </c>
-      <c r="L8" s="2">
-        <v>2</v>
-      </c>
-      <c r="M8" s="2">
-        <v>2</v>
-      </c>
-      <c r="N8" s="2">
-        <v>2</v>
-      </c>
-      <c r="O8" s="2">
-        <v>2</v>
-      </c>
-      <c r="P8" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>2</v>
-      </c>
-      <c r="R8" s="2">
-        <v>2</v>
-      </c>
-      <c r="S8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2</v>
-      </c>
-      <c r="H9" s="2">
-        <v>2</v>
-      </c>
-      <c r="I9" s="2">
-        <v>2</v>
-      </c>
-      <c r="J9" s="2">
-        <v>2</v>
-      </c>
-      <c r="K9" s="2">
-        <v>2</v>
-      </c>
-      <c r="L9" s="2">
-        <v>2</v>
-      </c>
-      <c r="M9" s="2">
-        <v>2</v>
-      </c>
-      <c r="N9" s="2">
-        <v>2</v>
-      </c>
-      <c r="O9" s="2">
-        <v>2</v>
-      </c>
-      <c r="P9" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>2</v>
-      </c>
-      <c r="R9" s="2">
-        <v>1</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1</v>
-      </c>
-      <c r="H10" s="2">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1</v>
-      </c>
-      <c r="N10" s="2">
-        <v>1</v>
-      </c>
-      <c r="O10" s="2">
-        <v>1</v>
-      </c>
-      <c r="P10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2">
-        <v>1</v>
-      </c>
-      <c r="S10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
-      <c r="E11" s="2">
-        <v>2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2</v>
-      </c>
-      <c r="H11" s="2">
-        <v>2</v>
-      </c>
-      <c r="I11" s="2">
-        <v>2</v>
-      </c>
-      <c r="J11" s="2">
-        <v>2</v>
-      </c>
-      <c r="K11" s="2">
-        <v>2</v>
-      </c>
-      <c r="L11" s="2">
-        <v>2</v>
-      </c>
-      <c r="M11" s="2">
-        <v>2</v>
-      </c>
-      <c r="N11" s="2">
-        <v>2</v>
-      </c>
-      <c r="O11" s="2">
-        <v>2</v>
-      </c>
-      <c r="P11" s="2">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2">
-        <v>1</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
-        <v>0</v>
-      </c>
-      <c r="P12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0</v>
-      </c>
-      <c r="L13" s="2">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <v>0</v>
-      </c>
-      <c r="P13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="2">
-        <f>SUM(D2:D13)</f>
-        <v>30</v>
-      </c>
-      <c r="E14" s="2">
-        <f>(D14-$D$14/15)</f>
-        <v>28</v>
-      </c>
-      <c r="F14" s="2">
-        <f>(E14-$D$14/15)</f>
-        <v>26</v>
-      </c>
-      <c r="G14" s="2">
-        <f>(F14-$D$14/15)</f>
-        <v>24</v>
-      </c>
-      <c r="H14" s="2">
-        <f>(G14-$D$14/15)</f>
-        <v>22</v>
-      </c>
-      <c r="I14" s="2">
-        <f>(H14-$D$14/15)</f>
-        <v>20</v>
-      </c>
-      <c r="J14" s="2">
-        <f>(I14-$D$14/15)</f>
-        <v>18</v>
-      </c>
-      <c r="K14" s="2">
-        <f>(J14-$D$14/15)</f>
-        <v>16</v>
-      </c>
-      <c r="L14" s="2">
-        <f>(K14-$D$14/15)</f>
-        <v>14</v>
-      </c>
-      <c r="M14" s="2">
-        <f>(L14-$D$14/15)</f>
-        <v>12</v>
-      </c>
-      <c r="N14" s="2">
-        <f>(M14-$D$14/15)</f>
-        <v>10</v>
-      </c>
-      <c r="O14" s="2">
-        <f>(N14-$D$14/15)</f>
-        <v>8</v>
-      </c>
-      <c r="P14" s="2">
-        <f>(O14-$D$14/15)</f>
-        <v>6</v>
-      </c>
-      <c r="Q14" s="2">
-        <f>(P14-$D$14/15)</f>
-        <v>4</v>
-      </c>
-      <c r="R14" s="2">
-        <f>(Q14-$D$14/15)</f>
-        <v>2</v>
-      </c>
-      <c r="S14" s="2">
-        <f>(R14-$D$14/15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C15" t="s">
-        <v>34</v>
       </c>
       <c r="D15" s="2">
         <f>SUM(D2:D13)</f>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" ref="E15:S15" si="0">SUM(E2:E13)</f>
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J15" s="2">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="N15" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S15" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
